--- a/biology/Médecine/Grille_antidiffusante/Grille_antidiffusante.xlsx
+++ b/biology/Médecine/Grille_antidiffusante/Grille_antidiffusante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La grille antidiffusante est un outil utilisé en radiographie pour améliorer la qualité de l'image radiologique, en diminuant la contribution du rayonnement diffusé (Compton, Rayleigh).
 Cette grille se place entre le patient et le détecteur. La grille antidiffusante doit être entre le patient et le posemètre automatique (ou radioposemètre, ou cellule) s'il est utilisé, afin d'éviter un cliché sous-exposé.
@@ -512,7 +524,9 @@
           <t>Principe de fonctionnement de la grille antidiffusante</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de la traversée du patient par les rayons X (ou photons X), ceux-ci subissent deux principaux phénomènes :
 l'absorption photoélectrique, aussi appelée effet photoélectrique, représente les rayons X absorbés par les structures anatomiques du patient, et qui contribuent donc à la formation de l'image radiologique exploitable.
